--- a/新增及更新功能(1)(1).xlsx
+++ b/新增及更新功能(1)(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="更新功能" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="229">
   <si>
     <t>第一：增加发布人，显示在左上角，带下划线。</t>
+  </si>
+  <si>
+    <t>creatorName</t>
+  </si>
+  <si>
+    <t>已改</t>
   </si>
   <si>
     <t>第二</t>
@@ -116,6 +122,9 @@
     </r>
   </si>
   <si>
+    <t>waixie</t>
+  </si>
+  <si>
     <t>第三，现在任务完成了是将边框置于绿框，改成一个绿色的勾，置于背景，不要档住前面原有的文字，淡化处理。</t>
   </si>
   <si>
@@ -144,9 +153,6 @@
     <t>第8：类似于excel锁定行功能</t>
   </si>
   <si>
-    <t>已改</t>
-  </si>
-  <si>
     <t>第9：增加切料日志功能</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
   </si>
   <si>
     <t>第10，有切料日志时在面板显示这样一个小图标</t>
+  </si>
+  <si>
+    <t>已添加图片还未判断是否显示</t>
+  </si>
+  <si>
+    <t>hascutting</t>
   </si>
   <si>
     <r>
@@ -180,6 +192,9 @@
   </si>
   <si>
     <t>能不能够成比例显示更小一些，每行保持显示5个，并且 不分分页了，直接 在一个网页显示完成</t>
+  </si>
+  <si>
+    <t>已删除分页，还需调整每页请求条数</t>
   </si>
   <si>
     <t>不再分第2页，只在一个页面显示</t>
@@ -521,6 +536,9 @@
     <t>点击编辑后显示的页面：</t>
   </si>
   <si>
+    <t>完成静态页面</t>
+  </si>
+  <si>
     <t>预计交期：</t>
   </si>
   <si>
@@ -950,10 +968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1034,29 +1052,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,9 +1065,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,9 +1087,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,30 +1141,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1147,18 +1158,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,18 +1217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1249,7 +1267,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,61 +1375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,55 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,19 +1423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,25 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,26 +1618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,17 +1663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,8 +1684,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,10 +1723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1729,137 +1735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,7 +2106,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2108,9 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2192,7 +2201,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2209,7 +2218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5109845" y="2571750"/>
+          <a:off x="5109845" y="2724150"/>
           <a:ext cx="4005580" cy="2395855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2233,8 +2242,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>353695</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2275,8 +2284,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2293,7 +2302,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="2655570"/>
+          <a:off x="601980" y="2807970"/>
           <a:ext cx="4396740" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2335,7 +2344,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="3067050"/>
+          <a:off x="6035040" y="3219450"/>
           <a:ext cx="274955" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2359,8 +2368,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2377,7 +2386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5314950"/>
+          <a:off x="685800" y="5619750"/>
           <a:ext cx="4293870" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2401,8 +2410,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2419,7 +2428,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="6515100"/>
+          <a:off x="5486400" y="6819900"/>
           <a:ext cx="899160" cy="708025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2435,16 +2444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672465</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>570230</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:colOff>556895</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2461,7 +2470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7715250"/>
+          <a:off x="672465" y="8171815"/>
           <a:ext cx="6056630" cy="2179955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2480,13 +2489,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2503,7 +2512,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586740" y="10130790"/>
+          <a:off x="586740" y="10732135"/>
           <a:ext cx="6278880" cy="2602230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2527,8 +2536,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2545,7 +2554,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="701040" y="13060680"/>
+          <a:off x="701040" y="13822680"/>
           <a:ext cx="6027420" cy="2616835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2587,7 +2596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="15952470"/>
+          <a:off x="419100" y="16866870"/>
           <a:ext cx="8039100" cy="3730625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2629,7 +2638,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765810" y="19895820"/>
+          <a:off x="765810" y="20810220"/>
           <a:ext cx="6823710" cy="2990850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2646,15 +2655,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>83185</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>259715</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2671,7 +2680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="769620" y="23397210"/>
+          <a:off x="768985" y="24324945"/>
           <a:ext cx="7033895" cy="2147570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2713,7 +2722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9464040" y="26308050"/>
+          <a:off x="9464040" y="27222450"/>
           <a:ext cx="473075" cy="368935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2737,8 +2746,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2755,7 +2764,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="731520" y="26075640"/>
+          <a:off x="731520" y="26990040"/>
           <a:ext cx="6263640" cy="3691890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2797,7 +2806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="769620" y="30011370"/>
+          <a:off x="769620" y="31078170"/>
           <a:ext cx="5958840" cy="2802890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2821,8 +2830,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>181610</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2839,7 +2848,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="33223200"/>
+          <a:off x="685800" y="34290000"/>
           <a:ext cx="7725410" cy="3691890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2881,7 +2890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="34937700"/>
+          <a:off x="8915400" y="36156900"/>
           <a:ext cx="2598420" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2952,8 +2961,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2994,8 +3003,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>570230</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3012,7 +3021,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="4846320"/>
+          <a:off x="7620" y="4998720"/>
           <a:ext cx="8106410" cy="3959225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3054,7 +3063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="10477500"/>
+          <a:off x="685800" y="10934700"/>
           <a:ext cx="5052695" cy="2481580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3078,8 +3087,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3096,7 +3105,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="13392150"/>
+          <a:off x="685800" y="13849350"/>
           <a:ext cx="8077200" cy="2779395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3120,8 +3129,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3138,7 +3147,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716280" y="16562070"/>
+          <a:off x="716280" y="17171670"/>
           <a:ext cx="8272145" cy="4034790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3209,8 +3218,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>287020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>59690</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3482,7 +3491,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3763,8 +3772,8 @@
   <sheetPr/>
   <dimension ref="H8:Z208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="U141" sqref="U141"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3777,15 +3786,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="80" customFormat="1"/>
+    <row r="9" spans="13:13">
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="15:15">
+      <c r="O10" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="81" customFormat="1"/>
     <row r="18" spans="15:15">
       <c r="O18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="15:22">
-      <c r="O20" s="81" t="s">
-        <v>2</v>
+      <c r="O20" s="83" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -3810,10 +3829,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" s="80" customFormat="1"/>
+    <row r="25" spans="17:17">
+      <c r="Q25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" spans="19:19">
+      <c r="S27" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="81" customFormat="1"/>
     <row r="37" spans="9:9">
       <c r="I37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="26:26">
@@ -3821,73 +3850,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" ht="25.5" spans="11:14">
       <c r="K41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" s="80" customFormat="1"/>
+        <v>7</v>
+      </c>
+      <c r="N41" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" s="81" customFormat="1"/>
     <row r="49" spans="11:22">
-      <c r="K49" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
+      <c r="K49" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="84"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
     </row>
     <row r="50" spans="11:22">
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
     </row>
     <row r="51" spans="26:26">
       <c r="Z51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="59" s="80" customFormat="1"/>
-    <row r="65" spans="12:12">
+    <row r="52" ht="25.5" spans="15:15">
+      <c r="O52" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" s="81" customFormat="1"/>
+    <row r="65" ht="25.5" spans="12:16">
       <c r="L65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" s="80" customFormat="1"/>
+        <v>9</v>
+      </c>
+      <c r="P65" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" s="81" customFormat="1"/>
     <row r="80" spans="12:12">
       <c r="L80" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="12:12">
       <c r="L81" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" s="80" customFormat="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" spans="15:15">
+      <c r="O87" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" s="81" customFormat="1"/>
     <row r="96" spans="14:14">
       <c r="N96" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="26:26">
@@ -3895,15 +3940,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="116" s="80" customFormat="1"/>
+    <row r="116" s="81" customFormat="1"/>
     <row r="118" spans="15:15">
       <c r="O118" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" ht="25.5" spans="18:18">
-      <c r="R119" s="83" t="s">
-        <v>12</v>
+      <c r="R119" s="82" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="26:26">
@@ -3911,15 +3956,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" s="80" customFormat="1"/>
+    <row r="135" s="81" customFormat="1"/>
     <row r="139" spans="13:13">
       <c r="M139" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" ht="25.5" spans="16:16">
-      <c r="P141" s="83" t="s">
-        <v>14</v>
+      <c r="P141" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="26:26">
@@ -3927,16 +3972,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" s="80" customFormat="1"/>
+    <row r="150" s="81" customFormat="1"/>
     <row r="155" spans="13:13">
       <c r="M155" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" s="80" customFormat="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" spans="16:16">
+      <c r="P157" s="82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="19:19">
+      <c r="S160" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" s="81" customFormat="1"/>
     <row r="179" spans="12:12">
       <c r="L179" s="38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="26:26">
@@ -3944,10 +3999,15 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="191" s="80" customFormat="1"/>
+    <row r="191" s="81" customFormat="1"/>
     <row r="197" spans="14:14">
       <c r="N197" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" ht="25.5" spans="23:23">
+      <c r="W200" s="82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="26:26">
@@ -3957,7 +4017,7 @@
     </row>
     <row r="208" spans="18:18">
       <c r="R208" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3975,10 +4035,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E8:T105"/>
+  <dimension ref="E8:T110"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3988,22 +4048,32 @@
   <sheetData>
     <row r="8" spans="12:20">
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="T8" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" s="80" customFormat="1"/>
+    <row r="19" s="81" customFormat="1"/>
     <row r="24" spans="12:12">
       <c r="L24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" s="80" customFormat="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" spans="12:12">
+      <c r="L25" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="81" customFormat="1"/>
     <row r="35" spans="14:14">
       <c r="N35" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" spans="15:15">
+      <c r="O39" s="82" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="20:20">
@@ -4011,27 +4081,30 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" s="80" customFormat="1"/>
+    <row r="53" s="81" customFormat="1"/>
     <row r="54" spans="5:5">
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="20:20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" spans="17:20">
+      <c r="Q57" s="82" t="s">
+        <v>2</v>
+      </c>
       <c r="T57" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1"/>
-    <row r="61" s="80" customFormat="1"/>
+    <row r="61" s="81" customFormat="1"/>
     <row r="63" spans="13:13">
       <c r="M63" s="38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="20:20">
@@ -4039,16 +4112,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" s="80" customFormat="1"/>
+    <row r="77" s="81" customFormat="1"/>
+    <row r="83" ht="25.5" spans="15:15">
+      <c r="O83" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="88" spans="20:20">
       <c r="T88" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="96" s="80" customFormat="1"/>
+    <row r="96" s="81" customFormat="1"/>
     <row r="105" spans="20:20">
       <c r="T105" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" spans="15:15">
+      <c r="O110" s="82" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4064,8 +4147,8 @@
   <sheetPr/>
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4093,190 +4176,190 @@
     <row r="2" ht="48" customHeight="1"/>
     <row r="4" spans="9:9">
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="51" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O6" s="52"/>
     </row>
     <row r="7" ht="16.5" spans="2:18">
       <c r="B7" s="53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="17">
         <v>20201109</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O7" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P7" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R7" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:18">
       <c r="B8" s="53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F8" s="55">
         <v>20201110</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J8" s="55"/>
       <c r="K8" s="74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M8" s="55"/>
       <c r="N8" s="75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O8" s="76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P8" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="3:18">
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" s="17">
         <v>20201211</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O9" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P9" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R9" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:18">
@@ -4286,31 +4369,31 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O10" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P10" s="73"/>
       <c r="Q10" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R10" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="3:18">
@@ -4320,218 +4403,218 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P11" s="73"/>
       <c r="Q11" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R11" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:18">
       <c r="B12" s="53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" s="17">
         <v>20201012</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O12" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R12" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="3:18">
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F13" s="17">
         <v>20201113</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O13" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P13" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R13" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="3:18">
       <c r="C14" s="54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55">
         <v>20201314</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M14" s="55"/>
       <c r="N14" s="75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O14" s="76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P14" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R14" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="3:18">
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F15" s="17">
         <v>20201515</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O15" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P15" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R15" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="3:18">
@@ -4541,89 +4624,89 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P16" s="73"/>
       <c r="Q16" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R16" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="3:18">
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F17" s="17">
         <v>20201216</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P17" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R17" s="73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="43.05" customHeight="1" spans="3:18">
       <c r="C18" s="30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="58" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -4632,10 +4715,10 @@
       <c r="K18" s="58"/>
       <c r="L18" s="58"/>
       <c r="M18" s="79" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
@@ -4644,7 +4727,7 @@
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -4685,13 +4768,18 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="59" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="62"/>
+    </row>
+    <row r="26" ht="25.5" spans="17:17">
+      <c r="Q26" s="80" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="63"/>
@@ -4712,7 +4800,7 @@
     <row r="30" spans="2:15">
       <c r="B30" s="65"/>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -4725,10 +4813,10 @@
     <row r="32" spans="2:15">
       <c r="B32" s="65"/>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
@@ -4745,10 +4833,10 @@
     <row r="34" spans="2:15">
       <c r="B34" s="65"/>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -4765,7 +4853,7 @@
     <row r="36" spans="2:15">
       <c r="B36" s="65"/>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -4778,7 +4866,7 @@
     <row r="38" spans="2:15">
       <c r="B38" s="65"/>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
@@ -4791,15 +4879,15 @@
     <row r="40" spans="2:15">
       <c r="B40" s="65"/>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D40" s="68"/>
       <c r="F40" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G40" s="68"/>
       <c r="I40" s="17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O40" s="12"/>
     </row>
@@ -4814,14 +4902,14 @@
     <row r="43" spans="2:15">
       <c r="B43" s="65"/>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
       <c r="H43" s="16"/>
       <c r="I43" s="17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O43" s="12"/>
     </row>
@@ -4836,7 +4924,7 @@
     <row r="46" spans="2:15">
       <c r="B46" s="65"/>
       <c r="F46" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O46" s="12"/>
     </row>
@@ -4883,7 +4971,7 @@
   <dimension ref="A7:AB47"/>
   <sheetViews>
     <sheetView topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
@@ -4911,7 +4999,7 @@
   <sheetData>
     <row r="7" spans="19:19">
       <c r="S7" s="43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="19:19">
@@ -4919,50 +5007,50 @@
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="39" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="V9" s="17"/>
     </row>
@@ -4994,51 +5082,51 @@
         <v>44179.7291666667</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="40"/>
       <c r="O11" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="T11" s="44" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:22">
@@ -5066,29 +5154,29 @@
     </row>
     <row r="13" ht="40.5" spans="2:22">
       <c r="B13" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="40"/>
@@ -5097,20 +5185,20 @@
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="T13" s="44" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="V13" s="46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -5140,45 +5228,45 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="40"/>
       <c r="O15" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="T15" s="44" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="V15" s="46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -5229,52 +5317,52 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="41" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="R18" s="42"/>
       <c r="S18" s="47" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="T18" s="47" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -5396,7 +5484,7 @@
     <row r="25" spans="2:20">
       <c r="B25" s="4"/>
       <c r="I25" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="T25" s="12"/>
     </row>
@@ -5411,14 +5499,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="T28" s="12"/>
     </row>
@@ -5429,13 +5517,13 @@
     <row r="30" spans="2:20">
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="H30" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="T30" s="12"/>
     </row>
@@ -5446,13 +5534,13 @@
     <row r="32" spans="2:20">
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="H32" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T32" s="12"/>
     </row>
@@ -5463,13 +5551,13 @@
     <row r="34" spans="2:20">
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="H34" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="T34" s="12"/>
     </row>
@@ -5480,16 +5568,16 @@
     <row r="36" spans="2:20">
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="H36" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="T36" s="12"/>
     </row>
@@ -5500,27 +5588,27 @@
     <row r="38" spans="2:20">
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="R38" s="15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="T38" s="12"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="4"/>
       <c r="P39" s="8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="T39" s="12"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="4"/>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -5534,7 +5622,7 @@
     <row r="42" spans="2:20">
       <c r="B42" s="4"/>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -5548,16 +5636,16 @@
     <row r="44" spans="2:20">
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="H44" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T44" s="12"/>
     </row>
@@ -5681,8 +5769,8 @@
   <sheetPr/>
   <dimension ref="C7:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
@@ -5702,7 +5790,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5723,7 +5811,7 @@
     <row r="10" spans="3:15">
       <c r="C10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6"/>
       <c r="O10" s="12"/>
@@ -5735,7 +5823,7 @@
     <row r="12" spans="3:15">
       <c r="C12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G12" s="6"/>
       <c r="O12" s="12"/>
@@ -5747,14 +5835,14 @@
     <row r="14" spans="3:15">
       <c r="C14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O14" s="12"/>
     </row>
@@ -5765,7 +5853,7 @@
     <row r="16" spans="3:19">
       <c r="C16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G16" s="6"/>
       <c r="O16" s="12"/>
@@ -5780,7 +5868,7 @@
     <row r="18" spans="3:15">
       <c r="C18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G18" s="6"/>
       <c r="O18" s="12"/>
@@ -5792,7 +5880,7 @@
     <row r="20" spans="3:15">
       <c r="C20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G20" s="6"/>
       <c r="O20" s="12"/>
@@ -5804,7 +5892,7 @@
     <row r="22" spans="3:15">
       <c r="C22" s="4"/>
       <c r="E22" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G22" s="6"/>
       <c r="O22" s="12"/>
@@ -5816,7 +5904,7 @@
     <row r="24" spans="3:15">
       <c r="C24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G24" s="6"/>
       <c r="O24" s="12"/>
@@ -5836,10 +5924,10 @@
     <row r="28" spans="3:15">
       <c r="C28" s="4"/>
       <c r="G28" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O28" s="12"/>
     </row>
@@ -5854,7 +5942,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -5871,7 +5959,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -5888,18 +5976,18 @@
     <row r="34" spans="3:15">
       <c r="C34" s="4"/>
       <c r="G34" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O34" s="12"/>
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="4"/>
       <c r="E35" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G35" s="6"/>
       <c r="I35" s="8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O35" s="12"/>
     </row>
@@ -5923,34 +6011,34 @@
     </row>
     <row r="38" spans="3:15">
       <c r="C38" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="3:15">
@@ -5962,31 +6050,31 @@
         <v>1</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="3:15">
@@ -5999,31 +6087,31 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="O42" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="43" spans="3:15">
@@ -6108,8 +6196,8 @@
   <sheetPr/>
   <dimension ref="C7:U67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
@@ -6141,7 +6229,7 @@
     <row r="8" spans="3:19">
       <c r="C8" s="4"/>
       <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="S8" s="12"/>
     </row>
@@ -6156,7 +6244,7 @@
     <row r="11" spans="3:19">
       <c r="C11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -6169,7 +6257,7 @@
     <row r="13" spans="3:19">
       <c r="C13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -6185,7 +6273,7 @@
     <row r="15" spans="3:19">
       <c r="C15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -6198,7 +6286,7 @@
     <row r="17" spans="3:19">
       <c r="C17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -6211,7 +6299,7 @@
     <row r="19" spans="3:19">
       <c r="C19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -6229,7 +6317,7 @@
     <row r="22" spans="3:19">
       <c r="C22" s="4"/>
       <c r="I22" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="S22" s="12"/>
     </row>
@@ -6286,7 +6374,7 @@
     <row r="30" spans="3:19">
       <c r="C30" s="4"/>
       <c r="H30" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S30" s="12"/>
     </row>
@@ -6301,7 +6389,7 @@
     <row r="33" spans="3:19">
       <c r="C33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -6314,7 +6402,7 @@
     <row r="35" spans="3:19">
       <c r="C35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -6323,14 +6411,14 @@
     <row r="36" spans="3:19">
       <c r="C36" s="4"/>
       <c r="L36" s="15" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="3:19">
       <c r="C37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -6343,7 +6431,7 @@
     <row r="39" spans="3:19">
       <c r="C39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -6356,7 +6444,7 @@
     <row r="41" spans="3:19">
       <c r="C41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -6374,7 +6462,7 @@
     <row r="44" spans="3:19">
       <c r="C44" s="4"/>
       <c r="I44" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="S44" s="12"/>
     </row>
@@ -6411,7 +6499,7 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="3:19">
@@ -6436,31 +6524,31 @@
     <row r="53" spans="3:19">
       <c r="C53" s="4"/>
       <c r="O53" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="17" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="S53" s="12"/>
     </row>
     <row r="54" spans="3:19">
       <c r="C54" s="4"/>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="S54" s="12"/>
     </row>
@@ -6471,25 +6559,25 @@
     <row r="56" spans="3:19">
       <c r="C56" s="4"/>
       <c r="D56" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H56" s="14">
         <v>1234567890</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="S56" s="12"/>
     </row>
@@ -6500,25 +6588,25 @@
     <row r="58" spans="3:19">
       <c r="C58" s="4"/>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H58" s="14">
         <v>123444890</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="S58" s="12"/>
     </row>
@@ -6585,8 +6673,8 @@
   <sheetPr/>
   <dimension ref="C7:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
@@ -6601,7 +6689,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -6625,7 +6713,7 @@
     <row r="10" spans="3:18">
       <c r="C10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I10" s="6"/>
       <c r="R10" s="12"/>
@@ -6641,11 +6729,11 @@
     <row r="13" spans="3:18">
       <c r="C13" s="4"/>
       <c r="G13" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R13" s="12"/>
     </row>
@@ -6668,10 +6756,10 @@
     <row r="18" spans="3:18">
       <c r="C18" s="4"/>
       <c r="I18" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="R18" s="12"/>
     </row>
@@ -6726,7 +6814,7 @@
     <row r="25" spans="3:18">
       <c r="C25" s="4"/>
       <c r="I25" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R25" s="12"/>
     </row>
@@ -6737,16 +6825,16 @@
     <row r="27" spans="3:18">
       <c r="C27" s="4"/>
       <c r="D27" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="R27" s="12"/>
     </row>
@@ -6764,13 +6852,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N29" s="10"/>
       <c r="R29" s="12"/>
@@ -6786,13 +6874,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N31" s="10"/>
       <c r="R31" s="12"/>
@@ -6808,13 +6896,13 @@
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N33" s="10"/>
       <c r="R33" s="12"/>
